--- a/modele.xlsx
+++ b/modele.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gregory.toledo\Desktop\espelho_merck\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ee0ff3c33a794e18/Área de Trabalho/espelho/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF1D6949-1A9D-42A1-B4F9-C5C21C4E5C42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{DF1D6949-1A9D-42A1-B4F9-C5C21C4E5C42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3A9C5053-8599-4152-9DAE-FDCB27729BBA}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PO xxxxxxxxxxxxxx" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'PO xxxxxxxxxxxxxx'!$A$2:$I$67</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="72">
   <si>
     <t xml:space="preserve">            FATURA </t>
   </si>
@@ -107,19 +107,10 @@
     <t>Referências</t>
   </si>
   <si>
-    <t xml:space="preserve">Deve(m) à SUL  ADUANEIRA IMPORT. EXPORT. LTDA.  a </t>
-  </si>
-  <si>
-    <t>importância supra referente às despesas abaixo especificadas:</t>
-  </si>
-  <si>
     <t>Nossa ref.:</t>
   </si>
   <si>
     <t>Sua ref.:</t>
-  </si>
-  <si>
-    <t>S.D.A.</t>
   </si>
   <si>
     <t>Informações Complementares</t>
@@ -268,12 +259,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="9">
-    <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="000000"/>
-    <numFmt numFmtId="165" formatCode="_(&quot;R$&quot;* #,##0.00_);_(&quot;R$&quot;* \(#,##0.00\);_(&quot;R$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="&quot;R$&quot;#,##0.00_);\(&quot;R$&quot;#,##0.00\)"/>
-    <numFmt numFmtId="167" formatCode="&quot;R$&quot;#,##0.00_);[Red]\(&quot;R$&quot;#,##0.00\)"/>
-    <numFmt numFmtId="168" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="000000"/>
+    <numFmt numFmtId="166" formatCode="_(&quot;R$&quot;* #,##0.00_);_(&quot;R$&quot;* \(#,##0.00\);_(&quot;R$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="&quot;R$&quot;#,##0.00_);\(&quot;R$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="168" formatCode="&quot;R$&quot;#,##0.00_);[Red]\(&quot;R$&quot;#,##0.00\)"/>
     <numFmt numFmtId="169" formatCode="[$USS]\ #,##0.00_);\([$USS]\ #,##0.00\)"/>
     <numFmt numFmtId="170" formatCode="[$R$ -416]#,##0.00_);\([$R$ -416]#,##0.00\)"/>
     <numFmt numFmtId="171" formatCode="&quot;R$&quot;\ #,##0.00"/>
@@ -766,7 +757,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -783,7 +774,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -816,18 +807,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -884,29 +875,29 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="168" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -917,7 +908,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -931,7 +922,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -949,15 +940,15 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="169" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -965,7 +956,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
@@ -974,22 +965,22 @@
     <xf numFmtId="170" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="171" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="21" xfId="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="21" xfId="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1327,8 +1318,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E52" sqref="E52"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -1382,7 +1373,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E6" s="8"/>
       <c r="G6" s="9" t="s">
@@ -1392,7 +1383,7 @@
     </row>
     <row r="7" spans="1:9" ht="15">
       <c r="A7" s="12" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C7" s="13"/>
       <c r="E7" s="8"/>
@@ -1404,7 +1395,7 @@
     </row>
     <row r="8" spans="1:9" ht="15">
       <c r="A8" s="12" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C8" s="13"/>
       <c r="E8" s="8"/>
@@ -1414,7 +1405,7 @@
     </row>
     <row r="9" spans="1:9" ht="15">
       <c r="A9" s="12" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B9" s="16"/>
       <c r="C9" s="13"/>
@@ -1427,7 +1418,7 @@
     </row>
     <row r="10" spans="1:9" ht="15">
       <c r="A10" s="12" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B10" s="16"/>
       <c r="C10" s="13"/>
@@ -1440,7 +1431,7 @@
     </row>
     <row r="11" spans="1:9" ht="15">
       <c r="A11" s="21" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B11" s="22"/>
       <c r="C11" s="23"/>
@@ -1513,7 +1504,7 @@
       </c>
       <c r="B15" s="46"/>
       <c r="C15" s="46" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D15" s="46"/>
       <c r="E15" s="46"/>
@@ -1527,10 +1518,10 @@
         <v>11</v>
       </c>
       <c r="C16" t="s">
+        <v>59</v>
+      </c>
+      <c r="G16" t="s">
         <v>62</v>
-      </c>
-      <c r="G16" t="s">
-        <v>65</v>
       </c>
       <c r="I16" s="10"/>
     </row>
@@ -1539,13 +1530,13 @@
         <v>12</v>
       </c>
       <c r="C17" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G17" t="s">
         <v>13</v>
       </c>
       <c r="H17" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I17" s="10"/>
     </row>
@@ -1554,7 +1545,7 @@
         <v>14</v>
       </c>
       <c r="C18" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="I18" s="10"/>
     </row>
@@ -1564,13 +1555,13 @@
       </c>
       <c r="B19" s="49"/>
       <c r="C19" s="50" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G19" t="s">
         <v>16</v>
       </c>
       <c r="H19" s="51" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I19" s="10"/>
     </row>
@@ -1620,18 +1611,14 @@
       </c>
       <c r="B23" s="133"/>
       <c r="C23" s="134"/>
-      <c r="E23" s="9" t="s">
-        <v>23</v>
-      </c>
+      <c r="E23" s="9"/>
       <c r="I23" s="10"/>
     </row>
     <row r="24" spans="1:12" ht="12.75" customHeight="1">
       <c r="A24" s="62"/>
       <c r="B24" s="63"/>
       <c r="C24" s="61"/>
-      <c r="E24" s="9" t="s">
-        <v>24</v>
-      </c>
+      <c r="E24" s="9"/>
       <c r="I24" s="10"/>
     </row>
     <row r="25" spans="1:12" ht="12.75" customHeight="1">
@@ -1642,7 +1629,7 @@
     </row>
     <row r="26" spans="1:12" ht="12.75" customHeight="1">
       <c r="A26" s="65" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B26" s="66"/>
       <c r="C26" s="67"/>
@@ -1651,7 +1638,7 @@
     </row>
     <row r="27" spans="1:12" ht="12.75" customHeight="1">
       <c r="A27" s="70" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B27" s="66"/>
       <c r="C27" s="67"/>
@@ -1662,9 +1649,7 @@
       <c r="A28" s="70"/>
       <c r="B28" s="66"/>
       <c r="C28" s="67"/>
-      <c r="E28" s="68" t="s">
-        <v>27</v>
-      </c>
+      <c r="E28" s="68"/>
       <c r="I28" s="72"/>
     </row>
     <row r="29" spans="1:12" ht="12.75" customHeight="1">
@@ -1677,34 +1662,34 @@
     </row>
     <row r="30" spans="1:12" ht="12.75" customHeight="1">
       <c r="A30" s="135" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B30" s="136"/>
       <c r="C30" s="137"/>
       <c r="E30" s="37" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I30" s="78"/>
     </row>
     <row r="31" spans="1:12" ht="12.75" customHeight="1">
       <c r="A31" s="79" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B31" s="80"/>
       <c r="C31" s="81" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E31" s="37"/>
       <c r="I31" s="74"/>
     </row>
     <row r="32" spans="1:12" ht="12.75" customHeight="1">
       <c r="A32" s="79" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B32" s="16"/>
       <c r="C32" s="82"/>
       <c r="E32" s="37" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I32" s="83"/>
       <c r="J32" s="75"/>
@@ -1712,7 +1697,7 @@
     </row>
     <row r="33" spans="1:13" ht="12.75" customHeight="1">
       <c r="A33" s="79" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B33" s="16"/>
       <c r="C33" s="84"/>
@@ -1721,18 +1706,18 @@
     </row>
     <row r="34" spans="1:13" ht="12.75" customHeight="1">
       <c r="A34" s="79" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B34" s="16"/>
       <c r="C34" s="85"/>
       <c r="E34" s="9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I34" s="71"/>
     </row>
     <row r="35" spans="1:13" ht="12.75" customHeight="1">
       <c r="A35" s="79" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B35" s="16"/>
       <c r="C35" s="86"/>
@@ -1741,18 +1726,18 @@
     </row>
     <row r="36" spans="1:13" ht="12.75" customHeight="1">
       <c r="A36" s="79" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B36" s="16"/>
       <c r="C36" s="86"/>
       <c r="E36" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I36" s="71"/>
     </row>
     <row r="37" spans="1:13" ht="12.75" customHeight="1">
       <c r="A37" s="79" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B37" s="16"/>
       <c r="C37" s="82"/>
@@ -1761,7 +1746,7 @@
     </row>
     <row r="38" spans="1:13" ht="12.75" customHeight="1">
       <c r="A38" s="79" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B38" s="16"/>
       <c r="C38" s="86"/>
@@ -1770,7 +1755,7 @@
     </row>
     <row r="39" spans="1:13" ht="12.75" customHeight="1">
       <c r="A39" s="79" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B39" s="16"/>
       <c r="C39" s="87"/>
@@ -1788,7 +1773,7 @@
     </row>
     <row r="41" spans="1:13" ht="12.75" customHeight="1">
       <c r="A41" s="89" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B41" s="90"/>
       <c r="C41" s="91"/>
@@ -1813,7 +1798,7 @@
     </row>
     <row r="44" spans="1:13" ht="12.75" customHeight="1">
       <c r="A44" s="138" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B44" s="136"/>
       <c r="C44" s="137"/>
@@ -1830,7 +1815,7 @@
     </row>
     <row r="46" spans="1:13" ht="12.75" customHeight="1">
       <c r="A46" s="93" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B46" s="37"/>
       <c r="C46" s="101"/>
@@ -1842,7 +1827,7 @@
     </row>
     <row r="47" spans="1:13" ht="12.75" customHeight="1">
       <c r="A47" s="93" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B47" s="37"/>
       <c r="C47" s="101"/>
@@ -1854,7 +1839,7 @@
     </row>
     <row r="48" spans="1:13" ht="12.75" customHeight="1">
       <c r="A48" s="93" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B48" s="37"/>
       <c r="C48" s="101"/>
@@ -1864,7 +1849,7 @@
     </row>
     <row r="49" spans="1:12" ht="12.75" customHeight="1">
       <c r="A49" s="93" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B49" s="37"/>
       <c r="C49" s="101"/>
@@ -1887,7 +1872,7 @@
     </row>
     <row r="51" spans="1:12" ht="12.75" customHeight="1">
       <c r="A51" s="97" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B51" s="76"/>
       <c r="C51" s="77"/>
@@ -1902,7 +1887,7 @@
     </row>
     <row r="53" spans="1:12" ht="12.75" customHeight="1">
       <c r="A53" s="93" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B53" s="37"/>
       <c r="C53" s="111"/>
@@ -1910,12 +1895,12 @@
       <c r="H53" s="109"/>
       <c r="I53" s="112"/>
       <c r="J53" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="54" spans="1:12" ht="12.75" customHeight="1">
       <c r="A54" s="93" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B54" s="37"/>
       <c r="C54" s="111"/>
@@ -1925,7 +1910,7 @@
     </row>
     <row r="55" spans="1:12" ht="12.75" customHeight="1">
       <c r="A55" s="93" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B55" s="37"/>
       <c r="C55" s="113"/>
@@ -1935,7 +1920,7 @@
     </row>
     <row r="56" spans="1:12" ht="12.75" customHeight="1">
       <c r="A56" s="93" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B56" s="16"/>
       <c r="C56" s="111"/>
@@ -1947,7 +1932,7 @@
     </row>
     <row r="57" spans="1:12" ht="12.75" customHeight="1">
       <c r="A57" s="93" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B57" s="16"/>
       <c r="C57" s="111"/>
@@ -1957,12 +1942,12 @@
     </row>
     <row r="58" spans="1:12">
       <c r="A58" s="93" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B58" s="16"/>
       <c r="C58" s="111"/>
       <c r="E58" s="37" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I58" s="112">
         <f>SUM(I26:I47)</f>
@@ -1981,7 +1966,7 @@
       <c r="H59" s="90"/>
       <c r="I59" s="91"/>
       <c r="J59" s="37" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K59" s="118"/>
     </row>
@@ -2007,7 +1992,7 @@
       <c r="B62" s="140"/>
       <c r="C62" s="141"/>
       <c r="E62" s="124" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F62" s="124"/>
       <c r="G62" s="124"/>
@@ -2034,11 +2019,11 @@
     </row>
     <row r="65" spans="1:10">
       <c r="A65" s="110" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C65" s="121"/>
       <c r="E65" s="125" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F65" s="124"/>
       <c r="G65" s="124"/>
